--- a/src/main/resources/drawPicture/color/emis_color_setting.xlsx
+++ b/src/main/resources/drawPicture/color/emis_color_setting.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="674" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="674"/>
   </bookViews>
   <sheets>
-    <sheet name="concn-show-hourly" sheetId="1" r:id="rId1"/>
-    <sheet name="concn-show-daily" sheetId="5" r:id="rId2"/>
-    <sheet name="concn-diff-hourly" sheetId="3" r:id="rId3"/>
-    <sheet name="concn-diff-daily" sheetId="6" r:id="rId4"/>
-    <sheet name="concn-ratio-hourly" sheetId="4" r:id="rId5"/>
-    <sheet name="concn-ratio-daily" sheetId="7" r:id="rId6"/>
+    <sheet name="emis-show-hourly" sheetId="1" r:id="rId1"/>
+    <sheet name="emis-show-daily" sheetId="5" r:id="rId2"/>
+    <sheet name="emis-diff-hourly" sheetId="3" r:id="rId3"/>
+    <sheet name="emis-diff-daily" sheetId="6" r:id="rId4"/>
+    <sheet name="emis-ratio-hourly" sheetId="4" r:id="rId5"/>
+    <sheet name="emis-ratio-daily" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="5" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -100,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -330,7 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -365,7 +364,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,23 +539,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="15" width="11.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="3">
         <v>20</v>
       </c>
@@ -651,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -698,7 +696,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -745,7 +743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -792,7 +790,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -839,7 +837,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -886,7 +884,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -933,7 +931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -980,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -1544,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -1591,7 +1589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -1638,7 +1636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -1732,7 +1730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -1826,7 +1824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2157,20 +2155,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="17" width="11.25" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="3">
         <v>20</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -2647,7 +2645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -2700,7 +2698,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -2753,7 +2751,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -3336,7 +3334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -3442,7 +3440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -3495,7 +3493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -3760,7 +3758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -3866,7 +3864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3973,14 +3971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.25" customWidth="1"/>
@@ -3988,7 +3986,7 @@
     <col min="11" max="15" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4035,7 +4033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -4082,7 +4080,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="11">
         <v>20</v>
       </c>
@@ -4129,7 +4127,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -4364,7 +4362,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -4599,7 +4597,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -4646,7 +4644,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -4881,7 +4879,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -4928,7 +4926,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -4975,7 +4973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -5022,7 +5020,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -5163,7 +5161,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -5351,7 +5349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -5539,7 +5537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5588,14 +5586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="11.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
@@ -5603,7 +5601,7 @@
     <col min="11" max="17" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="11">
         <v>20</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -5815,7 +5813,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -5921,7 +5919,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -6027,7 +6025,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -6080,7 +6078,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -6186,7 +6184,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -6239,7 +6237,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -6398,7 +6396,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -6451,7 +6449,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -6504,7 +6502,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -6557,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -6610,7 +6608,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -6663,7 +6661,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -6769,7 +6767,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -6822,7 +6820,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -6875,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -6928,7 +6926,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -7034,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -7087,7 +7085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -7140,7 +7138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -7193,7 +7191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -7246,7 +7244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -7299,7 +7297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7406,14 +7404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
@@ -7421,7 +7419,7 @@
     <col min="11" max="15" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7468,7 +7466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -7515,7 +7513,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="11">
         <v>20</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -7609,7 +7607,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -7703,7 +7701,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -7891,7 +7889,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -7938,7 +7936,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -7985,7 +7983,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -8032,7 +8030,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -8079,7 +8077,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -8126,7 +8124,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -8220,7 +8218,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -8314,7 +8312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -8408,7 +8406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -8455,7 +8453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -8502,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -8643,7 +8641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -8690,7 +8688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -8737,7 +8735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -8784,7 +8782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -8831,7 +8829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -8878,7 +8876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -8925,7 +8923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -8972,7 +8970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -9020,14 +9018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="11.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -9035,7 +9033,7 @@
     <col min="11" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -9141,7 +9139,7 @@
         <v>-99999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="11">
         <v>20</v>
       </c>
@@ -9194,7 +9192,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -9247,7 +9245,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.5">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -9300,7 +9298,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -9353,7 +9351,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -9406,7 +9404,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5">
       <c r="A8" s="1">
         <v>20</v>
       </c>
@@ -9459,7 +9457,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -9512,7 +9510,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -9565,7 +9563,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -9618,7 +9616,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -9671,7 +9669,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16.5">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="16.5">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -9777,7 +9775,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16.5">
       <c r="A15" s="3">
         <v>20</v>
       </c>
@@ -9830,7 +9828,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16.5">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -9883,7 +9881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="1">
         <v>20</v>
       </c>
@@ -9936,7 +9934,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="3">
         <v>80</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="1">
         <v>135</v>
       </c>
@@ -10042,7 +10040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -10095,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="3">
         <v>240</v>
       </c>
@@ -10148,7 +10146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="1">
         <v>240</v>
       </c>
@@ -10201,7 +10199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="1">
         <v>240</v>
       </c>
@@ -10254,7 +10252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="3">
         <v>240</v>
       </c>
@@ -10307,7 +10305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="1">
         <v>240</v>
       </c>
@@ -10360,7 +10358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -10413,7 +10411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="3">
         <v>240</v>
       </c>
@@ -10466,7 +10464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="16.5">
       <c r="A28" s="1">
         <v>240</v>
       </c>
@@ -10519,7 +10517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5">
       <c r="A29" s="1">
         <v>240</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="16.5">
       <c r="A30" s="3">
         <v>220</v>
       </c>
@@ -10625,7 +10623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="16.5">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -10678,7 +10676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="16.5">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -10731,7 +10729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="16.5">
       <c r="A33" s="3">
         <v>200</v>
       </c>
@@ -10784,7 +10782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="16.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
